--- a/CashFlow/EMN_cashflow.xlsx
+++ b/CashFlow/EMN_cashflow.xlsx
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3992000000.0</v>
+        <v>165000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5795000000.0</v>
+        <v>291000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6078000000.0</v>
+        <v>358000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4766000000.0</v>
+        <v>289000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3321000000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1540000000.0</v>
+        <v>-80000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-85000000.0</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-100000000.0</v>
+        <v>2757000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-57000000.0</v>
+        <v>2848000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
@@ -3984,10 +3984,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-70000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-60000000.0</v>
